--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="162">
   <si>
     <t>t</t>
   </si>
@@ -46,15 +46,6 @@
     <t>RunSimulator</t>
   </si>
   <si>
-    <t>..\ExcelReader\bin\Debug\ExcelReader.exe</t>
-  </si>
-  <si>
-    <t>..\..\SolarLoadModel\SolarLoadModel\bin\Debug\SolarLoadModel.exe</t>
-  </si>
-  <si>
-    <t>..\..\SolarLoadModel\Data</t>
-  </si>
-  <si>
     <t>output</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t>Gen8IdealPctP</t>
   </si>
   <si>
-    <t>Log File</t>
-  </si>
-  <si>
-    <t>log_entries.txt</t>
-  </si>
-  <si>
     <t>analyse.csv</t>
   </si>
   <si>
@@ -220,9 +205,6 @@
     <t>This sheet is automatically filled.  Any edits will be lost each time you run the Simulator</t>
   </si>
   <si>
-    <t>GenConfig*</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -493,15 +475,6 @@
     <t>Percent Complete</t>
   </si>
   <si>
-    <t>Watch</t>
-  </si>
-  <si>
-    <t>watchfile.txt</t>
-  </si>
-  <si>
-    <t>Run 172800 iterations...</t>
-  </si>
-  <si>
     <t>load.csv</t>
   </si>
   <si>
@@ -514,31 +487,25 @@
     <t>NPV Analyser.xls</t>
   </si>
   <si>
-    <t>*MaxP</t>
-  </si>
-  <si>
-    <t>*SetP</t>
-  </si>
-  <si>
-    <t>*Cfg</t>
-  </si>
-  <si>
-    <t>*Pa</t>
-  </si>
-  <si>
-    <t>Gen[1-4]StartCnt</t>
-  </si>
-  <si>
     <t>GenAvailSet</t>
   </si>
   <si>
-    <t>Run started on 25/02/2013 8:21:13 AM</t>
-  </si>
-  <si>
-    <t>version 2013/02/22-20662</t>
-  </si>
-  <si>
-    <t>inner loop took 1.70017s</t>
+    <t>C:\Program Files (x86)\Power Water Corporation\Asim\AsimExcelTools.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Power Water Corporation\Asim\Asim.exe</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Run started on 15/03/2013 3:38:17 PM</t>
+  </si>
+  <si>
+    <t>version 2013/03/15-28043</t>
+  </si>
+  <si>
+    <t>inner loop took 1.4211421s</t>
   </si>
 </sst>
 </file>
@@ -723,11 +690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="186153984"/>
-        <c:axId val="185996032"/>
+        <c:axId val="154995712"/>
+        <c:axId val="155054848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186153984"/>
+        <c:axId val="154995712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -739,12 +706,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185996032"/>
+        <c:crossAx val="155054848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185996032"/>
+        <c:axId val="155054848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186153984"/>
+        <c:crossAx val="154995712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -786,10 +753,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -835,11 +798,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="61489152"/>
-        <c:axId val="61490688"/>
+        <c:axId val="155778432"/>
+        <c:axId val="155937024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61489152"/>
+        <c:axId val="155778432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61490688"/>
+        <c:crossAx val="155937024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61490688"/>
+        <c:axId val="155937024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -869,7 +832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61489152"/>
+        <c:crossAx val="155778432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -938,7 +901,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1244,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,40 +1226,40 @@
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8">
         <v>41196.600694444445</v>
@@ -1304,7 +1267,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1312,102 +1275,68 @@
         <v>172800</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>604800</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6">
       <formula1>",,,iterations,,,,,input,output,,Community Name"</formula1>
     </dataValidation>
@@ -1423,17 +1352,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2">
       <formula1>",,,,,Community Name,,,input,output,,FlattenApplication"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A12">
-      <formula1>",,,,,Community Name,Template,,input,output,,,Log File"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A13">
-      <formula1>",,,,,Community Name,Template,,input,output,,,Watch"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A11">
       <formula1>",,,,,Community Name,Template,,input,output,,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A12">
       <formula1>",,,,,Community Name,,,input,output,,,Parameter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A13">
+      <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,85 +1392,85 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="M1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1658,244 +1584,244 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>82</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>84</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>87</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>88</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>89</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
         <v>97</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>98</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" t="s">
         <v>99</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AM1" t="s">
         <v>100</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AN1" t="s">
         <v>101</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AO1" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AP1" t="s">
         <v>103</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AQ1" t="s">
         <v>104</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AR1" t="s">
         <v>105</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AS1" t="s">
         <v>106</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
         <v>107</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AU1" t="s">
         <v>108</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AV1" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AW1" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AX1" t="s">
         <v>111</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AY1" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AZ1" t="s">
         <v>113</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BA1" t="s">
         <v>114</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BB1" t="s">
         <v>115</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BC1" t="s">
         <v>116</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BD1" t="s">
         <v>117</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BE1" t="s">
         <v>118</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
         <v>119</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BG1" t="s">
         <v>120</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BH1" t="s">
         <v>121</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BI1" t="s">
         <v>122</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BJ1" t="s">
         <v>123</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BK1" t="s">
         <v>124</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BL1" t="s">
         <v>125</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BM1" t="s">
         <v>126</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BN1" t="s">
         <v>127</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BO1" t="s">
         <v>128</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BP1" t="s">
         <v>129</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BQ1" t="s">
         <v>130</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BR1" t="s">
         <v>131</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BS1" t="s">
         <v>132</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BT1" t="s">
         <v>133</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BU1" t="s">
         <v>134</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BV1" t="s">
         <v>135</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BW1" t="s">
         <v>136</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BX1" t="s">
         <v>137</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BY1" t="s">
         <v>138</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BZ1" t="s">
         <v>139</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CA1" t="s">
         <v>140</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CB1" t="s">
         <v>141</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CC1" t="s">
         <v>142</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.25">
@@ -2166,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,61 +2132,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2356,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,7 +2307,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -2391,60 +2317,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>172</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
   <si>
     <t>t</t>
   </si>
@@ -28,15 +28,9 @@
     <t>config</t>
   </si>
   <si>
-    <t>FlattenApplication</t>
-  </si>
-  <si>
     <t>iterations</t>
   </si>
   <si>
-    <t>Simulator</t>
-  </si>
-  <si>
     <t>directory</t>
   </si>
   <si>
@@ -454,9 +448,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Solar Load Model  Copyright (C) 2012, 2013  Power Water Corporation.</t>
-  </si>
-  <si>
     <t>This program comes with ABSOLUTELY NO WARRANTY;</t>
   </si>
   <si>
@@ -490,22 +481,19 @@
     <t>GenAvailSet</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\Power Water Corporation\Asim\AsimExcelTools.exe</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Power Water Corporation\Asim\Asim.exe</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>Run started on 15/03/2013 3:38:17 PM</t>
-  </si>
-  <si>
-    <t>version 2013/03/15-28043</t>
-  </si>
-  <si>
-    <t>inner loop took 1.4211421s</t>
+    <t>Asim  Copyright (C) 2012, 2013  Power Water Corporation.</t>
+  </si>
+  <si>
+    <t>Run started on 18/03/2013 9:39:41 AM</t>
+  </si>
+  <si>
+    <t>version 2013/03/18-17327</t>
+  </si>
+  <si>
+    <t>inner loop took 3.5313531s</t>
   </si>
 </sst>
 </file>
@@ -690,11 +678,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154995712"/>
-        <c:axId val="155054848"/>
+        <c:axId val="127868288"/>
+        <c:axId val="127919232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154995712"/>
+        <c:axId val="127868288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -706,12 +694,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155054848"/>
+        <c:crossAx val="127919232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155054848"/>
+        <c:axId val="127919232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154995712"/>
+        <c:crossAx val="127868288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -798,11 +786,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="155778432"/>
-        <c:axId val="155937024"/>
+        <c:axId val="128412672"/>
+        <c:axId val="128414464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155778432"/>
+        <c:axId val="128412672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155937024"/>
+        <c:crossAx val="128414464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -819,7 +807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155937024"/>
+        <c:axId val="128414464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -832,7 +820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155778432"/>
+        <c:crossAx val="128412672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1207,11 +1195,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1234,48 +1220,50 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>156</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>157</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B3" s="8">
+        <v>41196.600694444445</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>172800</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="8">
-        <v>41196.600694444445</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>172800</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,83 +1271,62 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>604800</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9">
-        <v>604800</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
+      <c r="B10" s="7"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A4">
       <formula1>",,,iterations,,,,,input,output,,Community Name"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3">
       <formula1>",,,,,,,,input,output,Start Time,Community Name"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B8">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A7">
       <formula1>",,,,,Community Name,,,input,output,,output"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2">
-      <formula1>",,,,,Community Name,,,input,output,,FlattenApplication"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A11">
+      <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A11">
-      <formula1>",,,,,Community Name,Template,,input,output,,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A10">
+      <formula1>"FlattenApplication,Simulator,,,,Community Name,Template,Log File,input,output,,Watch,Parameter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A12">
-      <formula1>",,,,,Community Name,,,input,output,,,Parameter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A13">
-      <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A9">
+      <formula1>"FlattenApplication,Simulator,,,,Community Name,Template,Log File,input,output,,Watch,Parameter"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1392,85 +1359,85 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1584,244 +1551,244 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>80</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>83</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>84</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>85</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>86</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>87</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>89</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>91</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>93</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>94</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>99</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>101</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>102</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>104</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>105</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>106</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>107</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>108</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>109</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>110</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>111</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>112</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>113</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>114</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>115</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>116</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>117</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>118</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>119</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>120</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>121</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>122</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>123</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>125</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>126</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>127</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>128</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>129</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>130</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>131</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>132</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>133</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>134</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>135</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>136</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>137</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>138</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>139</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>140</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.25">
@@ -2092,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,61 +2099,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2282,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,47 +2284,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -2365,7 +2332,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
   <si>
     <t>t</t>
   </si>
@@ -448,24 +448,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>This program comes with ABSOLUTELY NO WARRANTY;</t>
-  </si>
-  <si>
-    <t>This is free software, and you are welcome to redistribute it</t>
-  </si>
-  <si>
-    <t>under certain conditions; see the file COPYING for details.</t>
-  </si>
-  <si>
     <t>*E</t>
   </si>
   <si>
-    <t>Init...</t>
-  </si>
-  <si>
-    <t>Percent Complete</t>
-  </si>
-  <si>
     <t>load.csv</t>
   </si>
   <si>
@@ -484,16 +469,19 @@
     <t>.</t>
   </si>
   <si>
-    <t>Asim  Copyright (C) 2012, 2013  Power Water Corporation.</t>
-  </si>
-  <si>
-    <t>Run started on 18/03/2013 9:39:41 AM</t>
-  </si>
-  <si>
-    <t>version 2013/03/18-17327</t>
-  </si>
-  <si>
-    <t>inner loop took 3.5313531s</t>
+    <t>LoadCapMargin</t>
+  </si>
+  <si>
+    <t>FlattenApplication</t>
+  </si>
+  <si>
+    <t>bin\ExcelReader.exe</t>
+  </si>
+  <si>
+    <t>Simulator</t>
+  </si>
+  <si>
+    <t>bin\SolarLoadModel.exe</t>
   </si>
 </sst>
 </file>
@@ -601,6 +589,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -678,11 +667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127868288"/>
-        <c:axId val="127919232"/>
+        <c:axId val="146369536"/>
+        <c:axId val="146400000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127868288"/>
+        <c:axId val="146369536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -694,12 +683,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127919232"/>
+        <c:crossAx val="146400000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127919232"/>
+        <c:axId val="146400000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127868288"/>
+        <c:crossAx val="146369536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -741,6 +730,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -756,9 +749,6 @@
               <c:f>SimResults!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent Complete</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -769,9 +759,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -786,11 +773,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="128412672"/>
-        <c:axId val="128414464"/>
+        <c:axId val="146647296"/>
+        <c:axId val="146653184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128412672"/>
+        <c:axId val="146647296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128414464"/>
+        <c:crossAx val="146653184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -807,7 +794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128414464"/>
+        <c:axId val="146653184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -820,7 +807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128412672"/>
+        <c:crossAx val="146647296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,7 +1182,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1220,29 +1207,29 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="8">
-        <v>41196.600694444445</v>
+        <v>152</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>172800</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>141</v>
@@ -1250,28 +1237,28 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>148</v>
+        <v>60</v>
+      </c>
+      <c r="B5" s="8">
+        <v>41196.600694444445</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>149</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>172800</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="C7">
         <v>604800</v>
@@ -1280,53 +1267,72 @@
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A4">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6">
       <formula1>",,,iterations,,,,,input,output,,Community Name"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A5">
       <formula1>",,,,,,,,input,output,Start Time,Community Name"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B10">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A9">
       <formula1>",,,,,Community Name,,,input,output,,output"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A13">
       <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A11:A12">
       <formula1>"FlattenApplication,Simulator,,,,Community Name,Template,Log File,input,output,,Watch,Parameter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A9">
-      <formula1>"FlattenApplication,Simulator,,,,Community Name,Template,Log File,input,output,,Watch,Parameter"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A4">
+      <formula1>"FlattenApplication,Simulator,,,,Community Name,,Log File,input,output,,Watch,Parameter,directory"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2">
+      <formula1>",,,,,Community Name,,,input,output,,FlattenApplication"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1339,9 +1345,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1383,7 +1387,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -1536,9 +1540,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2045,16 +2047,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2064,8 +2067,11 @@
       <c r="C1" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2074,6 +2080,9 @@
       </c>
       <c r="C2">
         <v>50</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2274,11 +2283,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2287,53 +2294,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>146</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
+      <c r="B10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -667,11 +667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146369536"/>
-        <c:axId val="146400000"/>
+        <c:axId val="150563840"/>
+        <c:axId val="150405888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146369536"/>
+        <c:axId val="150563840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -683,12 +683,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146400000"/>
+        <c:crossAx val="150405888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146400000"/>
+        <c:axId val="150405888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146369536"/>
+        <c:crossAx val="150563840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -773,11 +773,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="146647296"/>
-        <c:axId val="146653184"/>
+        <c:axId val="151238912"/>
+        <c:axId val="151240704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146647296"/>
+        <c:axId val="151238912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146653184"/>
+        <c:crossAx val="151240704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146653184"/>
+        <c:axId val="151240704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -807,7 +807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146647296"/>
+        <c:crossAx val="151238912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1260,15 +1260,6 @@
       <c r="B7" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C7">
-        <v>604800</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1285,8 +1276,14 @@
       <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
-        <v>56</v>
+      <c r="C9">
+        <v>604800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,6 +1300,9 @@
       </c>
       <c r="B11" s="7" t="s">
         <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -475,13 +475,13 @@
     <t>FlattenApplication</t>
   </si>
   <si>
-    <t>bin\ExcelReader.exe</t>
-  </si>
-  <si>
     <t>Simulator</t>
   </si>
   <si>
-    <t>bin\SolarLoadModel.exe</t>
+    <t>bin\Asim.exe</t>
+  </si>
+  <si>
+    <t>bin\AsimExcelTools.exe</t>
   </si>
 </sst>
 </file>
@@ -667,11 +667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150563840"/>
-        <c:axId val="150405888"/>
+        <c:axId val="155429888"/>
+        <c:axId val="155198208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150563840"/>
+        <c:axId val="155429888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -683,12 +683,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150405888"/>
+        <c:crossAx val="155198208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150405888"/>
+        <c:axId val="155198208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150563840"/>
+        <c:crossAx val="155429888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -773,11 +773,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="151238912"/>
-        <c:axId val="151240704"/>
+        <c:axId val="156035328"/>
+        <c:axId val="156037120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151238912"/>
+        <c:axId val="156035328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151240704"/>
+        <c:crossAx val="156037120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151240704"/>
+        <c:axId val="156037120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -807,7 +807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151238912"/>
+        <c:crossAx val="156035328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1210,13 +1210,13 @@
         <v>150</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>153</v>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -589,7 +589,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -667,11 +666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155429888"/>
-        <c:axId val="155198208"/>
+        <c:axId val="150187008"/>
+        <c:axId val="149955328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155429888"/>
+        <c:axId val="150187008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -683,12 +682,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155198208"/>
+        <c:crossAx val="149955328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155198208"/>
+        <c:axId val="149955328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155429888"/>
+        <c:crossAx val="150187008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -731,7 +730,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -773,11 +771,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="156035328"/>
-        <c:axId val="156037120"/>
+        <c:axId val="152955136"/>
+        <c:axId val="152956928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156035328"/>
+        <c:axId val="152955136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156037120"/>
+        <c:crossAx val="152956928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156037120"/>
+        <c:axId val="152956928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -807,7 +805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156035328"/>
+        <c:crossAx val="152955136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1210,7 +1208,7 @@
         <v>150</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1219,7 +1217,7 @@
         <v>151</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -7,20 +7,24 @@
     <workbookView xWindow="120" yWindow="390" windowWidth="16005" windowHeight="7545" tabRatio="725"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="4" r:id="rId1"/>
-    <sheet name="GenStats" sheetId="1" r:id="rId2"/>
-    <sheet name="FuelEfficiency" sheetId="7" r:id="rId3"/>
-    <sheet name="StationStats" sheetId="2" r:id="rId4"/>
-    <sheet name="GenConfigurations" sheetId="3" r:id="rId5"/>
-    <sheet name="Solar" sheetId="5" r:id="rId6"/>
-    <sheet name="SimResults" sheetId="6" r:id="rId7"/>
+    <sheet name="Wizard" sheetId="8" r:id="rId1"/>
+    <sheet name="config" sheetId="4" r:id="rId2"/>
+    <sheet name="GenStats" sheetId="1" r:id="rId3"/>
+    <sheet name="FuelEfficiency" sheetId="7" r:id="rId4"/>
+    <sheet name="StationStats" sheetId="2" r:id="rId5"/>
+    <sheet name="GenConfigurations" sheetId="3" r:id="rId6"/>
+    <sheet name="Solar" sheetId="5" r:id="rId7"/>
+    <sheet name="SimResults" sheetId="6" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="168">
   <si>
     <t>t</t>
   </si>
@@ -482,6 +486,48 @@
   </si>
   <si>
     <t>bin\AsimExcelTools.exe</t>
+  </si>
+  <si>
+    <t>Hysteresis</t>
+  </si>
+  <si>
+    <t>Spinning Reserve Setpoint</t>
+  </si>
+  <si>
+    <t>Generator Minimum Run Time</t>
+  </si>
+  <si>
+    <t>Use this startup wizard to quickly fill in values in the simulation</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Generator 1 Nominal Rating</t>
+  </si>
+  <si>
+    <t>Generator 2 Nominal Rating</t>
+  </si>
+  <si>
+    <t>Generator 3 Nominal Rating</t>
+  </si>
+  <si>
+    <t>Generator 4 Nominal Rating</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -491,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,16 +553,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -524,12 +608,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -540,12 +641,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -666,11 +798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150187008"/>
-        <c:axId val="149955328"/>
+        <c:axId val="165102336"/>
+        <c:axId val="165103872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150187008"/>
+        <c:axId val="165102336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -682,12 +814,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149955328"/>
+        <c:crossAx val="165103872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149955328"/>
+        <c:axId val="165103872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150187008"/>
+        <c:crossAx val="165102336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -730,6 +862,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -771,11 +904,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="152955136"/>
-        <c:axId val="152956928"/>
+        <c:axId val="166592512"/>
+        <c:axId val="166594048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152955136"/>
+        <c:axId val="166592512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152956928"/>
+        <c:crossAx val="166594048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -792,7 +925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152956928"/>
+        <c:axId val="166594048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -805,7 +938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152955136"/>
+        <c:crossAx val="166592512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,7 +955,140 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="RunWizard" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Run Wizard</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-AU"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="RunAsim" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Run Asim</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-AU"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -857,7 +1123,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -890,6 +1156,35 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="config"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="RunApplication.RunApplication"/>
+      <definedName name="StartupWizard.RunWizard"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:D11" totalsRowShown="0" headerRowCellStyle="60% - Accent1">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Parameter" dataDxfId="0"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Value"/>
+    <tableColumn id="4" name="Units"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,11 +1473,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7">
+        <v>3600</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",F1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="RunWizard">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!StartupWizard.RunWizard">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3075" r:id="rId5" name="RunAsim">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!RunApplication.RunApplication">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1248,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>172800</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,9 +1841,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1450,13 +1953,13 @@
         <v>80</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -1533,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:CC2"/>
@@ -2042,12 +2545,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2088,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T2"/>
@@ -2234,7 +2739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C2"/>
@@ -2278,7 +2783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B10"/>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="390" windowWidth="16005" windowHeight="7545" tabRatio="725"/>
+    <workbookView xWindow="120" yWindow="390" windowWidth="16005" windowHeight="7545" tabRatio="725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wizard" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="176">
   <si>
     <t>t</t>
   </si>
@@ -197,9 +197,6 @@
     <t>analyse.csv</t>
   </si>
   <si>
-    <t>*Cnt</t>
-  </si>
-  <si>
     <t>This sheet is automatically filled.  Any edits will be lost each time you run the Simulator</t>
   </si>
   <si>
@@ -452,18 +449,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>*E</t>
-  </si>
-  <si>
     <t>load.csv</t>
   </si>
   <si>
     <t>renewables.csv</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
     <t>NPV Analyser.xls</t>
   </si>
   <si>
@@ -528,6 +519,39 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Batch Command</t>
+  </si>
+  <si>
+    <t>Gen1P{max,min}</t>
+  </si>
+  <si>
+    <t>Asim  Copyright (C) 2012, 2013  Power Water Corporation.</t>
+  </si>
+  <si>
+    <t>This program comes with ABSOLUTELY NO WARRANTY;</t>
+  </si>
+  <si>
+    <t>This is free software, and you are welcome to redistribute it</t>
+  </si>
+  <si>
+    <t>under certain conditions; see the file COPYING for details.</t>
+  </si>
+  <si>
+    <t>version 2013/06/07-18880</t>
+  </si>
+  <si>
+    <t>Init...</t>
+  </si>
+  <si>
+    <t>Percent Complete</t>
+  </si>
+  <si>
+    <t>Run started on 11/06/2013 4:04:31 PM</t>
+  </si>
+  <si>
+    <t>inner loop took 1.290129s</t>
   </si>
 </sst>
 </file>
@@ -861,10 +885,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -880,6 +900,9 @@
               <c:f>SimResults!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent Complete</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -890,6 +913,9 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -904,11 +930,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="166592512"/>
-        <c:axId val="166594048"/>
+        <c:axId val="35513088"/>
+        <c:axId val="35514624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166592512"/>
+        <c:axId val="35513088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166594048"/>
+        <c:crossAx val="35514624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -925,7 +951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166594048"/>
+        <c:axId val="35514624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -938,7 +964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166592512"/>
+        <c:crossAx val="35513088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1140,7 +1166,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1477,7 +1503,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1490,7 +1516,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1498,16 +1524,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,13 +1541,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,13 +1555,13 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,13 +1569,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>3600</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,13 +1583,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C8">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,13 +1611,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,13 +1625,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11">
         <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1683,8 +1709,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,19 +1734,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1730,15 +1756,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8">
         <v>41196.600694444445</v>
@@ -1759,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1767,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,13 +1804,10 @@
         <v>56</v>
       </c>
       <c r="C9">
-        <v>604800</v>
+        <v>86400</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,25 +1815,25 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
       <c r="B11" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
       <c r="B12" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6">
       <formula1>",,,iterations,,,,,input,output,,Community Name"</formula1>
     </dataValidation>
@@ -1820,20 +1843,23 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B10">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A9">
-      <formula1>",,,,,Community Name,,,input,output,,output"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A13">
-      <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A11:A12">
-      <formula1>"FlattenApplication,Simulator,,,,Community Name,Template,Log File,input,output,,Watch,Parameter"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A4">
       <formula1>"FlattenApplication,Simulator,,,,Community Name,,Log File,input,output,,Watch,Parameter,directory"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2">
       <formula1>",,,,,Community Name,,,input,output,,FlattenApplication"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A9">
+      <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter,output"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A13">
+      <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A11">
+      <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter,Template"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A12">
+      <formula1>",,,,,Community Name,Template,Log File,input,output,,Watch,Parameter,Batch Command"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1888,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -2054,244 +2080,244 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>78</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>79</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>80</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>81</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>82</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>89</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>90</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>91</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>92</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>93</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>95</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>96</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>97</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>98</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>99</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>100</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>101</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>102</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>103</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>104</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>105</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>106</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>107</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>108</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>109</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>110</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>111</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>112</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>113</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>114</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>115</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>116</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>117</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>118</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>119</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>120</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>121</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>122</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>123</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>124</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>125</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>126</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>127</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>128</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>129</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>130</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>131</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>132</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>133</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>134</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>135</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>136</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>137</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>138</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>139</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.25">
@@ -2571,7 +2597,7 @@
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,7 +2812,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2794,11 +2820,56 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="390" windowWidth="16005" windowHeight="7545" tabRatio="725" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="390" windowWidth="16005" windowHeight="7545" tabRatio="725"/>
   </bookViews>
   <sheets>
     <sheet name="Wizard" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="167">
   <si>
     <t>t</t>
   </si>
@@ -521,37 +521,10 @@
     <t>s</t>
   </si>
   <si>
-    <t>Batch Command</t>
-  </si>
-  <si>
     <t>Gen1P{max,min}</t>
   </si>
   <si>
-    <t>Asim  Copyright (C) 2012, 2013  Power Water Corporation.</t>
-  </si>
-  <si>
-    <t>This program comes with ABSOLUTELY NO WARRANTY;</t>
-  </si>
-  <si>
-    <t>This is free software, and you are welcome to redistribute it</t>
-  </si>
-  <si>
-    <t>under certain conditions; see the file COPYING for details.</t>
-  </si>
-  <si>
-    <t>version 2013/06/07-18880</t>
-  </si>
-  <si>
-    <t>Init...</t>
-  </si>
-  <si>
-    <t>Percent Complete</t>
-  </si>
-  <si>
-    <t>Run started on 11/06/2013 4:04:31 PM</t>
-  </si>
-  <si>
-    <t>inner loop took 1.290129s</t>
+    <t>Template</t>
   </si>
 </sst>
 </file>
@@ -822,11 +795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165102336"/>
-        <c:axId val="165103872"/>
+        <c:axId val="71881856"/>
+        <c:axId val="71883776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165102336"/>
+        <c:axId val="71881856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -838,12 +811,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165103872"/>
+        <c:crossAx val="71883776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165103872"/>
+        <c:axId val="71883776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165102336"/>
+        <c:crossAx val="71881856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -885,6 +858,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -900,9 +877,6 @@
               <c:f>SimResults!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent Complete</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -913,9 +887,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -930,11 +901,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="35513088"/>
-        <c:axId val="35514624"/>
+        <c:axId val="83956480"/>
+        <c:axId val="83958784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="35513088"/>
+        <c:axId val="83956480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35514624"/>
+        <c:crossAx val="83958784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -951,7 +922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35514624"/>
+        <c:axId val="83958784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -964,7 +935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35513088"/>
+        <c:crossAx val="83956480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1189,6 +1160,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="config"/>
+      <sheetName val="Asim Addin"/>
     </sheetNames>
     <definedNames>
       <definedName name="RunApplication.RunApplication"/>
@@ -1196,6 +1168,7 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1503,9 +1476,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1709,9 +1680,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1807,7 +1776,7 @@
         <v>86400</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,6 +1788,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>143</v>
       </c>
@@ -1827,9 +1799,6 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>165</v>
-      </c>
       <c r="B12" s="7"/>
     </row>
   </sheetData>
@@ -2812,7 +2781,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2823,53 +2792,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>175</v>
-      </c>
+      <c r="B10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -795,11 +795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71881856"/>
-        <c:axId val="71883776"/>
+        <c:axId val="61366656"/>
+        <c:axId val="61368576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71881856"/>
+        <c:axId val="61366656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -811,12 +811,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71883776"/>
+        <c:crossAx val="61368576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71883776"/>
+        <c:axId val="61368576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71881856"/>
+        <c:crossAx val="61366656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -859,7 +859,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -901,11 +900,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="83956480"/>
-        <c:axId val="83958784"/>
+        <c:axId val="86674432"/>
+        <c:axId val="88355200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83956480"/>
+        <c:axId val="86674432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83958784"/>
+        <c:crossAx val="88355200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -922,7 +921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83958784"/>
+        <c:axId val="88355200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -935,7 +934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83956480"/>
+        <c:crossAx val="86674432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1160,7 +1159,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="config"/>
-      <sheetName val="Asim Addin"/>
     </sheetNames>
     <definedNames>
       <definedName name="RunApplication.RunApplication"/>
@@ -1168,7 +1166,6 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iain.buchanan\workProjects\pwc.asim.git\PWC.Asim\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="390" windowWidth="16005" windowHeight="7545" tabRatio="725"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="169">
   <si>
     <t>t</t>
   </si>
@@ -525,6 +530,12 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>ShedOffPct</t>
+  </si>
+  <si>
+    <t>ShedOnPct</t>
   </si>
 </sst>
 </file>
@@ -680,6 +691,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -687,7 +701,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -718,6 +732,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -795,11 +810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61366656"/>
-        <c:axId val="61368576"/>
+        <c:axId val="-851172784"/>
+        <c:axId val="-851172240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61366656"/>
+        <c:axId val="-851172784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -811,12 +826,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61368576"/>
+        <c:crossAx val="-851172240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61368576"/>
+        <c:axId val="-851172240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61366656"/>
+        <c:crossAx val="-851172784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -847,7 +862,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -900,11 +915,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="86674432"/>
-        <c:axId val="88355200"/>
+        <c:axId val="-851164080"/>
+        <c:axId val="-851171696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86674432"/>
+        <c:axId val="-851164080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88355200"/>
+        <c:crossAx val="-851171696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -921,7 +936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88355200"/>
+        <c:axId val="-851171696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -934,7 +949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86674432"/>
+        <c:crossAx val="-851164080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -987,7 +1002,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -995,6 +1010,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
@@ -1012,7 +1033,6 @@
                 </a:rPr>
                 <a:t>Run Wizard</a:t>
               </a:r>
-              <a:endParaRPr lang="en-AU"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1047,7 +1067,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1055,6 +1075,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
@@ -1072,7 +1098,6 @@
                 </a:rPr>
                 <a:t>Run Asim</a:t>
               </a:r>
-              <a:endParaRPr lang="en-AU"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1226,7 +1251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1261,7 +1286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2540,19 +2565,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2565,8 +2590,14 @@
       <c r="D1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2578,6 +2609,12 @@
       </c>
       <c r="D2">
         <v>1</v>
+      </c>
+      <c r="E2">
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iain.buchanan\workProjects\pwc.asim.git\PWC.Asim\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\git.pwc.asim\PWC.Asim\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
   <si>
     <t>t</t>
   </si>
@@ -457,12 +457,6 @@
     <t>load.csv</t>
   </si>
   <si>
-    <t>renewables.csv</t>
-  </si>
-  <si>
-    <t>NPV Analyser.xls</t>
-  </si>
-  <si>
     <t>GenAvailSet</t>
   </si>
   <si>
@@ -478,12 +472,6 @@
     <t>Simulator</t>
   </si>
   <si>
-    <t>bin\Asim.exe</t>
-  </si>
-  <si>
-    <t>bin\AsimExcelTools.exe</t>
-  </si>
-  <si>
     <t>Hysteresis</t>
   </si>
   <si>
@@ -529,13 +517,16 @@
     <t>Gen1P{max,min}</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
     <t>ShedOffPct</t>
   </si>
   <si>
     <t>ShedOnPct</t>
+  </si>
+  <si>
+    <t>..\bin\AsimExcelTools.exe</t>
+  </si>
+  <si>
+    <t>..\bin\Asim.exe</t>
   </si>
 </sst>
 </file>
@@ -545,7 +536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,12 +565,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -651,7 +636,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -660,6 +645,18 @@
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -671,18 +668,6 @@
         <color theme="1" tint="0.499984740745262"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
   </dxfs>
@@ -732,7 +717,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -810,11 +794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-851172784"/>
-        <c:axId val="-851172240"/>
+        <c:axId val="-1549063152"/>
+        <c:axId val="-1549054992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-851172784"/>
+        <c:axId val="-1549063152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -826,12 +810,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-851172240"/>
+        <c:crossAx val="-1549054992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-851172240"/>
+        <c:axId val="-1549054992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-851172784"/>
+        <c:crossAx val="-1549063152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -915,11 +899,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-851164080"/>
-        <c:axId val="-851171696"/>
+        <c:axId val="-1549059344"/>
+        <c:axId val="-1549054448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-851164080"/>
+        <c:axId val="-1549059344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-851171696"/>
+        <c:crossAx val="-1549054448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -936,7 +920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-851171696"/>
+        <c:axId val="-1549054448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -949,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-851164080"/>
+        <c:crossAx val="-1549059344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -966,150 +950,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="RunWizard" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:t>Run Wizard</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3075" name="RunAsim" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3075"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:t>Run Asim</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1144,7 +985,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1184,6 +1025,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="config"/>
+      <sheetName val="Asim Addin"/>
     </sheetNames>
     <definedNames>
       <definedName name="RunApplication.RunApplication"/>
@@ -1191,6 +1033,7 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1199,7 +1042,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:D11" totalsRowShown="0" headerRowCellStyle="60% - Accent1">
   <tableColumns count="4">
-    <tableColumn id="1" name="Parameter" dataDxfId="0"/>
+    <tableColumn id="1" name="Parameter" dataDxfId="2"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Value"/>
     <tableColumn id="4" name="Units"/>
@@ -1494,11 +1337,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1509,7 +1354,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1517,16 +1362,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1534,13 +1379,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1548,13 +1393,13 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,13 +1407,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C7">
         <v>3600</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,13 +1421,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C8">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,13 +1449,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1618,81 +1463,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11">
         <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",F1)))</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId4" name="RunWizard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!StartupWizard.RunWizard">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3075" r:id="rId5" name="RunAsim">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!RunApplication.RunApplication">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1700,9 +1493,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1725,19 +1520,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1747,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>140</v>
@@ -1781,57 +1576,38 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>142</v>
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>86400</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>86400</v>
-      </c>
-      <c r="D9" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
+      <c r="B10" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6">
       <formula1>",,,iterations,,,,,input,output,,Community Name"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A5">
       <formula1>",,,,,,,,input,output,Start Time,Community Name"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B9">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A4">
@@ -1840,16 +1616,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2">
       <formula1>",,,,,Community Name,,,input,output,,FlattenApplication"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A8">
       <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter,output"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A11">
       <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A11">
-      <formula1>",,,,,Community Name,,Log File,input,output,,Watch,Parameter,Template"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A10">
       <formula1>",,,,,Community Name,Template,Log File,input,output,,Watch,Parameter,Batch Command"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1905,7 +1678,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -2588,13 +2361,13 @@
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/PWC.Asim/Data/Example.xlsx
+++ b/PWC.Asim/Data/Example.xlsx
@@ -21,9 +21,6 @@
     <sheet name="Solar" sheetId="5" r:id="rId7"/>
     <sheet name="SimResults" sheetId="6" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -647,18 +644,6 @@
   <dxfs count="3">
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -668,6 +653,18 @@
         <color theme="1" tint="0.499984740745262"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
   </dxfs>
@@ -794,11 +791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1549063152"/>
-        <c:axId val="-1549054992"/>
+        <c:axId val="-1035416560"/>
+        <c:axId val="-1035413840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1549063152"/>
+        <c:axId val="-1035416560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -810,12 +807,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1549054992"/>
+        <c:crossAx val="-1035413840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1549054992"/>
+        <c:axId val="-1035413840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1549063152"/>
+        <c:crossAx val="-1035416560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -899,11 +896,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1549059344"/>
-        <c:axId val="-1549054448"/>
+        <c:axId val="-1035412752"/>
+        <c:axId val="-1035418736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1549059344"/>
+        <c:axId val="-1035412752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1549054448"/>
+        <c:crossAx val="-1035418736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -920,7 +917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1549054448"/>
+        <c:axId val="-1035418736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -933,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1549059344"/>
+        <c:crossAx val="-1035412752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1020,29 +1017,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="config"/>
-      <sheetName val="Asim Addin"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="RunApplication.RunApplication"/>
-      <definedName name="StartupWizard.RunWizard"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:D11" totalsRowShown="0" headerRowCellStyle="60% - Accent1">
   <tableColumns count="4">
-    <tableColumn id="1" name="Parameter" dataDxfId="2"/>
+    <tableColumn id="1" name="Parameter" dataDxfId="0"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Value"/>
     <tableColumn id="4" name="Units"/>
@@ -1341,9 +1319,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1475,10 +1451,10 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
